--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H2">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N2">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q2">
-        <v>22.74428608164711</v>
+        <v>58.23819616223778</v>
       </c>
       <c r="R2">
-        <v>204.698574734824</v>
+        <v>524.14376546014</v>
       </c>
       <c r="S2">
-        <v>0.1015058320860549</v>
+        <v>0.1701313290138397</v>
       </c>
       <c r="T2">
-        <v>0.1015058320860549</v>
+        <v>0.1701313290138397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H3">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
         <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q3">
-        <v>29.51096964569601</v>
+        <v>50.01866419088</v>
       </c>
       <c r="R3">
-        <v>265.598726811264</v>
+        <v>450.16797771792</v>
       </c>
       <c r="S3">
-        <v>0.1317049705934647</v>
+        <v>0.1461195980484225</v>
       </c>
       <c r="T3">
-        <v>0.1317049705934647</v>
+        <v>0.1461195980484226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H4">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N4">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q4">
-        <v>23.13589953455911</v>
+        <v>41.95827208720778</v>
       </c>
       <c r="R4">
-        <v>208.223095811032</v>
+        <v>377.62444878487</v>
       </c>
       <c r="S4">
-        <v>0.1032535699245268</v>
+        <v>0.1225727626150202</v>
       </c>
       <c r="T4">
-        <v>0.1032535699245268</v>
+        <v>0.1225727626150202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H5">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N5">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q5">
-        <v>11.92892755419467</v>
+        <v>19.36221698036111</v>
       </c>
       <c r="R5">
-        <v>107.360347987752</v>
+        <v>174.25995282325</v>
       </c>
       <c r="S5">
-        <v>0.05323779840510644</v>
+        <v>0.05656287324467495</v>
       </c>
       <c r="T5">
-        <v>0.05323779840510643</v>
+        <v>0.05656287324467495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H6">
         <v>1.414049</v>
       </c>
       <c r="I6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N6">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q6">
-        <v>15.86882348822478</v>
+        <v>23.97351556282511</v>
       </c>
       <c r="R6">
-        <v>142.819411394023</v>
+        <v>215.761640065426</v>
       </c>
       <c r="S6">
-        <v>0.07082122193752925</v>
+        <v>0.07003386664784852</v>
       </c>
       <c r="T6">
-        <v>0.07082122193752927</v>
+        <v>0.07003386664784854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H7">
         <v>1.414049</v>
       </c>
       <c r="I7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N7">
         <v>131.049072</v>
       </c>
       <c r="O7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q7">
-        <v>20.58997880139201</v>
+        <v>20.589978801392</v>
       </c>
       <c r="R7">
-        <v>185.3098092125281</v>
+        <v>185.309809212528</v>
       </c>
       <c r="S7">
-        <v>0.09189134024109896</v>
+        <v>0.06014953567739426</v>
       </c>
       <c r="T7">
-        <v>0.09189134024109896</v>
+        <v>0.06014953567739427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H8">
         <v>1.414049</v>
       </c>
       <c r="I8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N8">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q8">
-        <v>16.14205452029878</v>
+        <v>17.27195131644811</v>
       </c>
       <c r="R8">
-        <v>145.278490682689</v>
+        <v>155.447561848033</v>
       </c>
       <c r="S8">
-        <v>0.07204062900807182</v>
+        <v>0.05045657705372076</v>
       </c>
       <c r="T8">
-        <v>0.07204062900807182</v>
+        <v>0.05045657705372077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H9">
         <v>1.414049</v>
       </c>
       <c r="I9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N9">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q9">
-        <v>8.322883606097667</v>
+        <v>7.970377530519444</v>
       </c>
       <c r="R9">
-        <v>74.905952454879</v>
+        <v>71.733397774675</v>
       </c>
       <c r="S9">
-        <v>0.03714432815167738</v>
+        <v>0.02328387572705368</v>
       </c>
       <c r="T9">
-        <v>0.03714432815167738</v>
+        <v>0.02328387572705368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H10">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I10">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J10">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N10">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q10">
-        <v>16.97036672126244</v>
+        <v>32.16079776807599</v>
       </c>
       <c r="R10">
-        <v>152.733300491362</v>
+        <v>289.447179912684</v>
       </c>
       <c r="S10">
-        <v>0.07573731655781613</v>
+        <v>0.09395138632360168</v>
       </c>
       <c r="T10">
-        <v>0.07573731655781617</v>
+        <v>0.09395138632360171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H11">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I11">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J11">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N11">
         <v>131.049072</v>
       </c>
       <c r="O11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q11">
-        <v>22.019243663648</v>
+        <v>27.62173710172799</v>
       </c>
       <c r="R11">
-        <v>198.173192972832</v>
+        <v>248.595633915552</v>
       </c>
       <c r="S11">
-        <v>0.09827002887497624</v>
+        <v>0.080691421652152</v>
       </c>
       <c r="T11">
-        <v>0.09827002887497625</v>
+        <v>0.08069142165215203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H12">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I12">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J12">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N12">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q12">
-        <v>17.26256423781844</v>
+        <v>23.170558022358</v>
       </c>
       <c r="R12">
-        <v>155.363078140366</v>
+        <v>208.535022201222</v>
       </c>
       <c r="S12">
-        <v>0.07704136945026673</v>
+        <v>0.06768818559136809</v>
       </c>
       <c r="T12">
-        <v>0.07704136945026674</v>
+        <v>0.06768818559136811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H13">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I13">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J13">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N13">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q13">
-        <v>8.900621213580665</v>
+        <v>10.69237005405</v>
       </c>
       <c r="R13">
-        <v>80.105590922226</v>
+        <v>96.23133048645001</v>
       </c>
       <c r="S13">
-        <v>0.03972272240702792</v>
+        <v>0.03123563653200568</v>
       </c>
       <c r="T13">
-        <v>0.03972272240702793</v>
+        <v>0.03123563653200569</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H14">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N14">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O14">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P14">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q14">
-        <v>2.779775888728222</v>
+        <v>3.188604435202667</v>
       </c>
       <c r="R14">
-        <v>25.017982998554</v>
+        <v>28.697439916824</v>
       </c>
       <c r="S14">
-        <v>0.01240590553535971</v>
+        <v>0.009314874876090406</v>
       </c>
       <c r="T14">
-        <v>0.01240590553535972</v>
+        <v>0.009314874876090408</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H15">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N15">
         <v>131.049072</v>
       </c>
       <c r="O15">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P15">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q15">
-        <v>3.606790803616001</v>
+        <v>2.738576140608</v>
       </c>
       <c r="R15">
-        <v>32.46111723254401</v>
+        <v>24.647185265472</v>
       </c>
       <c r="S15">
-        <v>0.01609680340667169</v>
+        <v>0.008000206550170188</v>
       </c>
       <c r="T15">
-        <v>0.01609680340667169</v>
+        <v>0.00800020655017019</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H16">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N16">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O16">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P16">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q16">
-        <v>2.827638355380222</v>
+        <v>2.297260926454666</v>
       </c>
       <c r="R16">
-        <v>25.448745198422</v>
+        <v>20.675348338092</v>
       </c>
       <c r="S16">
-        <v>0.01261951169058314</v>
+        <v>0.006710991759094336</v>
       </c>
       <c r="T16">
-        <v>0.01261951169058314</v>
+        <v>0.006710991759094337</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H17">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N17">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O17">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P17">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q17">
-        <v>1.457937394671333</v>
+        <v>1.060102389966667</v>
       </c>
       <c r="R17">
-        <v>13.121436552042</v>
+        <v>9.5409215097</v>
       </c>
       <c r="S17">
-        <v>0.006506651729768055</v>
+        <v>0.003096878687542898</v>
       </c>
       <c r="T17">
-        <v>0.006506651729768055</v>
+        <v>0.003096878687542898</v>
       </c>
     </row>
   </sheetData>
